--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF4494F-5C79-4C8A-8B4F-7311FBCD89A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0CBCD-51E3-40B2-8427-899FE01A01BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F927B04-BACA-48DB-BEF1-E78F9F00866E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,37 +31,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClassName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("/Game/Character/Monster/BMonster_BP.BMonster_BP_C", "/Game/Character/Monster/BMonster_BP.BMonster_BP_C", "/Game/Character/Monster/BMonster_BP2.BMonster_BP2_C")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3, 2, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("/Game/Character/Monster/BMonster_BP2.BMonster_BP2_C", "/Game/Character/Monster/BMonster_BP.BMonster_BP_C")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3, 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("/Game/Character/Monster/BMonster_BP2.BMonster_BP2_C")</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterClassPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C", "/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C", "/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
+  </si>
+  <si>
+    <t>(1, 2, 3)</t>
+  </si>
+  <si>
+    <t>(50, 20, 50)</t>
+  </si>
+  <si>
+    <t>(100, 200, 300)</t>
+  </si>
+  <si>
+    <t>(200, 300, 400)</t>
+  </si>
+  <si>
+    <t>(1, 1, 1)</t>
+  </si>
+  <si>
+    <t>DropMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -116,10 +137,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,99 +455,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85D6A83-F3B0-4494-9D7B-406D6909DB30}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="99.125" customWidth="1"/>
-    <col min="4" max="4" width="62.125" customWidth="1"/>
-    <col min="6" max="6" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0CBCD-51E3-40B2-8427-899FE01A01BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC0AEC-DC66-4BAF-A32F-DC319045E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="4290" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t>("/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
-  </si>
-  <si>
-    <t>("/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C", "/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C", "/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
-  </si>
-  <si>
-    <t>(1, 2, 3)</t>
-  </si>
-  <si>
-    <t>(50, 20, 50)</t>
-  </si>
-  <si>
-    <t>(100, 200, 300)</t>
-  </si>
-  <si>
-    <t>(200, 300, 400)</t>
-  </si>
-  <si>
-    <t>(1, 1, 1)</t>
   </si>
   <si>
     <t>DropMoney</t>
@@ -456,16 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="2" max="2" width="88.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -491,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -505,19 +487,19 @@
         <v>-9</v>
       </c>
       <c r="D2" s="2">
-        <v>-50</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="2">
         <v>-10</v>
       </c>
       <c r="F2" s="2">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G2" s="2">
         <v>-1</v>
       </c>
       <c r="H2" s="2">
-        <v>-10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -528,22 +510,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="D3" s="2">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="2">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="F3" s="2">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
       </c>
       <c r="H3" s="2">
-        <v>-100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -551,25 +533,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-90</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -577,25 +559,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-90</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -603,25 +585,220 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EC0AEC-DC66-4BAF-A32F-DC319045E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D78A7D-BE22-47B2-867C-175549C028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="3360" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,6 +801,141 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D78A7D-BE22-47B2-867C-175549C028F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F75F256-E089-4417-AE85-1AF7B3EC84E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DropMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>("/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
-  </si>
-  <si>
-    <t>DropMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/SmallWhiteMinion/BSmallWhiteMinion_BP.BSmallWhiteMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/SmallWhiteMinion/BSmallWhiteMinion_BP.BSmallWhiteMinion_BP_C", "/Game/Character/Monster/WhiteMinion/BWhiteMinion_BP.BWhiteMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(9, 9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(300, 300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(18, 18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(27, 27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/BlackMinion/BBlackMinion_BP.BBlackMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/BlackMinion/BBlackMinion_BP.BBlackMinion_BP_C", "/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,14 +485,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.75" customWidth="1"/>
+    <col min="2" max="2" width="147.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -473,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -481,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>-9</v>
@@ -507,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>-27</v>
@@ -533,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>-90</v>
@@ -559,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>-90</v>
+        <v>-9</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -585,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -611,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -637,25 +682,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -663,25 +708,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-10</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -689,154 +734,328 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-1</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-90</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F75F256-E089-4417-AE85-1AF7B3EC84E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AD40D-DF62-45E6-8ED5-1E53E2FC5198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>("/Game/Character/Monster/BlackMinion/BBlackMinion_BP.BBlackMinion_BP_C", "/Game/Character/Monster/SuperMinion/BSuperMinion_BP.BSuperMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/ForestWhiteMinion/BForestWhiteMinion_BP.BForestWhiteMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/Rapter/BRapter_BP.BRapter_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/ForestWhiteMinion/BForestWhiteMinion_BP.BForestWhiteMinion_BP_C", "/Game/Character/Monster/Rapter/BRapter_BP.BRapter_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/BlueFly/BBlueFly_BP.BBlueFly_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/RangeMinion/BRangeMinion_BP.BRangeMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("/Game/Character/Monster/BlueFly/BBlueFly_BP.BBlueFly_BP_C", "/Game/Character/Monster/RangeMinion/BRangeMinion_BP.BRangeMinion_BP_C")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1009,46 +1033,235 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-90</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1059,83 +1272,272 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-90</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065AD40D-DF62-45E6-8ED5-1E53E2FC5198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D73B6-6A68-40FF-A284-76CFE8378C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterClassPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropMoney</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +130,34 @@
   </si>
   <si>
     <t>("/Game/Character/Monster/BlueFly/BBlueFly_BP.BBlueFly_BP_C", "/Game/Character/Monster/RangeMinion/BRangeMinion_BP.BRangeMinion_BP_C")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치에 0을 넣으면 기본값으로 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SmallWhiteMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("WhiteMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SmallWhiteMinion", "WhiteMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("BlackMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SuperMinion")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,12 +193,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +231,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,24 +549,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="147.75" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -542,15 +585,15 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>-9</v>
@@ -570,13 +613,16 @@
       <c r="H2" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>-27</v>
@@ -596,13 +642,16 @@
       <c r="H3" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>-90</v>
@@ -622,13 +671,16 @@
       <c r="H4" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>-9</v>
@@ -648,13 +700,16 @@
       <c r="H5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>-18</v>
@@ -674,13 +729,16 @@
       <c r="H6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>-27</v>
@@ -700,86 +758,98 @@
       <c r="H7" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -789,13 +859,16 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>-9</v>
@@ -816,12 +889,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>-27</v>
@@ -841,13 +914,16 @@
       <c r="H13" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>-90</v>
@@ -867,13 +943,16 @@
       <c r="H14" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2">
         <v>-9</v>
@@ -893,13 +972,16 @@
       <c r="H15" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>-18</v>
@@ -919,13 +1001,16 @@
       <c r="H16" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>-27</v>
@@ -945,97 +1030,100 @@
       <c r="H17" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
       <c r="C22" s="2">
         <v>-9</v>
       </c>
@@ -1055,13 +1143,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
       <c r="C23" s="2">
         <v>-27</v>
       </c>
@@ -1080,14 +1165,14 @@
       <c r="H23" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
       <c r="C24" s="2">
         <v>-90</v>
       </c>
@@ -1106,14 +1191,14 @@
       <c r="H24" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
       <c r="C25" s="2">
         <v>-9</v>
       </c>
@@ -1132,14 +1217,14 @@
       <c r="H25" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
       <c r="C26" s="2">
         <v>-18</v>
       </c>
@@ -1158,14 +1243,14 @@
       <c r="H26" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
       <c r="C27" s="2">
         <v>-27</v>
       </c>
@@ -1184,97 +1269,100 @@
       <c r="H27" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
       <c r="C32" s="2">
         <v>-9</v>
       </c>
@@ -1294,13 +1382,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
       <c r="C33" s="2">
         <v>-27</v>
       </c>
@@ -1319,14 +1404,14 @@
       <c r="H33" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
       <c r="C34" s="2">
         <v>-90</v>
       </c>
@@ -1345,14 +1430,14 @@
       <c r="H34" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
       <c r="C35" s="2">
         <v>-9</v>
       </c>
@@ -1371,14 +1456,14 @@
       <c r="H35" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
       <c r="C36" s="2">
         <v>-18</v>
       </c>
@@ -1397,14 +1482,14 @@
       <c r="H36" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
       <c r="C37" s="2">
         <v>-27</v>
       </c>
@@ -1423,121 +1508,127 @@
       <c r="H37" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>25</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/Data/SpawnData.xlsx
+++ b/Data/SpawnData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BroGame\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D73B6-6A68-40FF-A284-76CFE8378C68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAEA8F-F7BE-4050-8704-3C249D8F35C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
+    <workbookView xWindow="4215" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{85F11096-AC3F-4D9D-B598-BE09DDB71694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="41">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(18, 18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(27, 27)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,6 +154,46 @@
   </si>
   <si>
     <t>("SuperMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("BlackMinion", "SuperMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("ForestWhiteMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("Raptor")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("ForestWhiteMinion", "Raptor")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("BlueFly")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("RangeMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("BlueFly", "RangeMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SuperWhiteMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SuperBlackMinion")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("SuperWhiteMinion", "SuperBlackMinion")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +215,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -217,12 +261,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,8 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD86482F-868F-4E0C-B33D-E3D15ED44C48}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -593,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="2">
         <v>-1</v>
@@ -614,7 +665,7 @@
         <v>-1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -622,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="2">
         <v>-1</v>
@@ -651,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>-90</v>
+        <v>-27</v>
       </c>
       <c r="D4" s="2">
         <v>-1</v>
@@ -680,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -709,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -738,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>-27</v>
@@ -767,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -796,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -825,10 +876,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -868,10 +919,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -894,10 +945,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -915,7 +966,7 @@
         <v>-1</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -923,10 +974,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>-90</v>
+        <v>-27</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -944,7 +995,7 @@
         <v>-1</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -952,10 +1003,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -973,7 +1024,7 @@
         <v>-1</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -981,10 +1032,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1002,7 +1053,7 @@
         <v>-1</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1010,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>-27</v>
@@ -1031,15 +1082,18 @@
         <v>-1</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -1057,15 +1111,18 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1083,15 +1140,18 @@
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1109,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1117,15 +1177,18 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -1147,8 +1210,11 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="2">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -1166,15 +1232,18 @@
         <v>-1</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="2">
-        <v>-90</v>
+        <v>-27</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -1192,15 +1261,18 @@
         <v>-1</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -1218,15 +1290,18 @@
         <v>-1</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
       <c r="C26" s="2">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="D26" s="2">
         <v>-1</v>
@@ -1244,13 +1319,16 @@
         <v>-1</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="2">
         <v>-27</v>
       </c>
@@ -1270,15 +1348,18 @@
         <v>-1</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
@@ -1296,15 +1377,18 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -1322,15 +1406,18 @@
         <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
@@ -1348,7 +1435,7 @@
         <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1356,15 +1443,18 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
       <c r="C32" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="2">
         <v>-1</v>
@@ -1386,8 +1476,11 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" s="2">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="D33" s="2">
         <v>-1</v>
@@ -1405,15 +1498,18 @@
         <v>-1</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="2">
-        <v>-90</v>
+        <v>-27</v>
       </c>
       <c r="D34" s="2">
         <v>-1</v>
@@ -1431,15 +1527,18 @@
         <v>-1</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
       <c r="C35" s="2">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="2">
         <v>-1</v>
@@ -1457,15 +1556,18 @@
         <v>-1</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
       <c r="C36" s="2">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="D36" s="2">
         <v>-1</v>
@@ -1483,13 +1585,16 @@
         <v>-1</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
       <c r="C37" s="2">
         <v>-27</v>
       </c>
@@ -1509,15 +1614,18 @@
         <v>-1</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -1535,15 +1643,18 @@
         <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -1561,15 +1672,18 @@
         <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -1587,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1595,55 +1709,244 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
